--- a/aichan/546156210395453242_2021-07-11_18-45-02.xlsx
+++ b/aichan/546156210395453242_2021-07-11_18-45-02.xlsx
@@ -821,7 +821,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3581,11 +3581,11 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5228,11 +5228,11 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7481,7 +7481,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9159,11 +9159,11 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9875,11 +9875,11 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13151,7 +13151,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -15999,7 +15999,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -16078,7 +16078,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -18000,7 +18000,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18288,7 +18288,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -19372,7 +19372,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20387,7 +20387,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20951,7 +20951,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -23414,7 +23414,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -24116,7 +24116,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24266,7 +24266,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -25073,7 +25073,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -27238,7 +27238,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27523,7 +27523,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -28175,7 +28175,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29641,7 +29641,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -30865,7 +30865,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -31149,7 +31149,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31792,7 +31792,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -32486,7 +32486,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -33408,7 +33408,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -33643,7 +33643,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -34954,7 +34954,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -37082,7 +37082,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37441,7 +37441,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37646,7 +37646,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -39591,7 +39591,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -40023,7 +40023,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40104,7 +40104,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -40179,7 +40179,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -40404,7 +40404,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40898,7 +40898,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -42790,7 +42790,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -44706,7 +44706,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -45125,7 +45125,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -45847,11 +45847,11 @@
         </is>
       </c>
       <c r="I628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -46511,7 +46511,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -47223,7 +47223,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -47441,7 +47441,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -47512,7 +47512,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -47662,7 +47662,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -48315,7 +48315,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -49392,7 +49392,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -50047,7 +50047,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -51302,7 +51302,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -52167,7 +52167,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -52238,7 +52238,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52825,7 +52825,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -52892,7 +52892,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -54570,7 +54570,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -54645,7 +54645,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -55004,7 +55004,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -57820,7 +57820,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -58234,7 +58234,7 @@
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K799" t="inlineStr">
@@ -58684,7 +58684,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -59682,7 +59682,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K819" t="inlineStr">
@@ -59749,7 +59749,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K820" t="inlineStr">
@@ -60839,7 +60839,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K835" t="inlineStr">
@@ -61403,7 +61403,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -61545,7 +61545,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K845" t="inlineStr">
@@ -61608,7 +61608,7 @@
         </is>
       </c>
       <c r="I846" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J846" t="inlineStr">
         <is>
@@ -62917,7 +62917,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -64283,7 +64283,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -64839,7 +64839,7 @@
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -65328,11 +65328,11 @@
         </is>
       </c>
       <c r="I898" t="n">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
@@ -65482,7 +65482,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -65746,7 +65746,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K904" t="inlineStr">
@@ -66614,7 +66614,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -67129,7 +67129,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -67267,7 +67267,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -67701,7 +67701,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K931" t="inlineStr">
@@ -68338,7 +68338,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
@@ -68851,7 +68851,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -69340,7 +69340,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -70067,7 +70067,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -70138,7 +70138,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -70981,7 +70981,7 @@
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K977" t="inlineStr">
@@ -71624,7 +71624,7 @@
         </is>
       </c>
       <c r="I986" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="J986" t="inlineStr">
         <is>
@@ -71702,7 +71702,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K987" t="inlineStr">
@@ -72211,7 +72211,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -72353,7 +72353,7 @@
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -73177,7 +73177,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1007" t="inlineStr">
@@ -74591,7 +74591,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -78902,7 +78902,7 @@
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1085" t="inlineStr">
@@ -79202,7 +79202,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1089" t="inlineStr">
@@ -81924,7 +81924,7 @@
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1126" t="inlineStr">
@@ -82580,7 +82580,7 @@
         </is>
       </c>
       <c r="I1135" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J1135" t="inlineStr">
         <is>
@@ -83042,7 +83042,7 @@
       </c>
       <c r="J1141" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1141" t="inlineStr">
@@ -83180,7 +83180,7 @@
       </c>
       <c r="J1143" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1143" t="inlineStr">
@@ -83840,11 +83840,11 @@
         </is>
       </c>
       <c r="I1152" t="n">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1152" t="inlineStr">

--- a/aichan/546156210395453242_2021-07-11_18-45-02.xlsx
+++ b/aichan/546156210395453242_2021-07-11_18-45-02.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12024,7 +12024,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12798,7 +12798,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14015,7 +14015,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14094,7 +14094,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14406,7 +14406,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14540,7 +14540,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14619,7 +14619,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14682,7 +14682,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14987,7 +14987,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -15065,7 +15065,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15600,7 +15600,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -16299,7 +16299,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16678,7 +16678,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16970,7 +16970,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17041,7 +17041,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17341,7 +17341,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17716,7 +17716,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17996,7 +17996,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18067,7 +18067,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18213,7 +18213,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18359,7 +18359,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18430,7 +18430,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18501,7 +18501,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18580,7 +18580,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18722,7 +18722,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18793,7 +18793,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18868,7 +18868,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19145,7 +19145,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19295,7 +19295,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19370,7 +19370,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19514,7 +19514,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19739,7 +19739,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19810,7 +19810,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -20028,7 +20028,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -20257,7 +20257,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20324,7 +20324,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20395,7 +20395,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20458,7 +20458,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20659,7 +20659,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21093,7 +21093,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21373,7 +21373,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21594,7 +21594,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21668,7 +21668,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21810,7 +21810,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21881,7 +21881,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22248,7 +22248,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22315,7 +22315,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22388,7 +22388,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22755,7 +22755,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -23047,7 +23047,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23193,7 +23193,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23698,7 +23698,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -24258,7 +24258,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24333,7 +24333,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24630,7 +24630,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24709,7 +24709,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -25068,7 +25068,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25369,7 +25369,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -26180,7 +26180,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26386,7 +26386,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26607,7 +26607,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26958,7 +26958,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27029,7 +27029,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -27234,7 +27234,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27380,7 +27380,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27665,7 +27665,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27945,7 +27945,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28087,7 +28087,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -28237,7 +28237,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28384,7 +28384,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28610,7 +28610,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28839,7 +28839,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29349,7 +29349,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29424,7 +29424,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29929,7 +29929,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30071,7 +30071,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30209,7 +30209,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30489,7 +30489,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30635,7 +30635,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -30864,7 +30864,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -30940,7 +30940,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31007,7 +31007,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31149,7 +31149,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -31291,7 +31291,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31362,7 +31362,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31437,7 +31437,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31508,7 +31508,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31575,7 +31575,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31705,7 +31705,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -31934,7 +31934,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32163,7 +32163,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32391,7 +32391,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32628,7 +32628,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -32842,7 +32842,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -33059,7 +33059,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -33127,7 +33127,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33194,7 +33194,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33341,7 +33341,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33631,7 +33631,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33714,7 +33714,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33853,7 +33853,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -33924,7 +33924,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -33991,7 +33991,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34141,7 +34141,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34292,7 +34292,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -34367,7 +34367,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34442,7 +34442,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -34513,7 +34513,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -34958,7 +34958,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -35025,7 +35025,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -35096,7 +35096,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35167,7 +35167,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35383,7 +35383,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35454,7 +35454,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -35588,7 +35588,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35655,7 +35655,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -35726,7 +35726,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35868,7 +35868,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -35947,7 +35947,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -36018,7 +36018,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -36227,7 +36227,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36440,7 +36440,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36653,7 +36653,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -37086,7 +37086,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37370,7 +37370,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -37654,7 +37654,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -37788,7 +37788,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -37863,7 +37863,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -38005,7 +38005,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38230,7 +38230,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -38655,7 +38655,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -38789,7 +38789,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -38864,7 +38864,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -38935,7 +38935,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39006,7 +39006,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39152,7 +39152,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39231,7 +39231,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -39370,7 +39370,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -39520,7 +39520,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -39587,7 +39587,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -39733,7 +39733,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -40023,7 +40023,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40246,7 +40246,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -40321,7 +40321,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -40396,7 +40396,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40475,7 +40475,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -40546,7 +40546,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40830,7 +40830,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -41040,7 +41040,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41663,7 +41663,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -41809,7 +41809,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -41947,7 +41947,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -42089,7 +42089,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42226,7 +42226,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -42293,7 +42293,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -42360,7 +42360,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -42431,7 +42431,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -42510,7 +42510,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -42585,7 +42585,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -42656,7 +42656,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -42861,7 +42861,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -42932,7 +42932,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -43086,7 +43086,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -43165,7 +43165,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -43321,7 +43321,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43467,7 +43467,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -43617,7 +43617,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -43684,7 +43684,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -44337,7 +44337,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -44560,7 +44560,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -44631,7 +44631,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -44848,7 +44848,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -45267,7 +45267,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -45843,7 +45843,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -46349,7 +46349,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -46578,7 +46578,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46653,7 +46653,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -46800,7 +46800,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -47155,7 +47155,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -47222,7 +47222,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -47298,7 +47298,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -47365,7 +47365,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -47432,7 +47432,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -47654,7 +47654,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -47804,7 +47804,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -48315,7 +48315,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -48457,7 +48457,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -48528,7 +48528,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -48759,7 +48759,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -48826,7 +48826,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -48972,7 +48972,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -49115,7 +49115,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -49257,7 +49257,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49328,7 +49328,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49396,7 +49396,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -49613,7 +49613,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -49692,7 +49692,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -49763,7 +49763,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -49901,7 +49901,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -49972,7 +49972,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -50118,7 +50118,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -50189,7 +50189,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -50410,7 +50410,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -50840,7 +50840,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -50986,7 +50986,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -51290,7 +51290,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -51662,7 +51662,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -51871,7 +51871,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -51942,7 +51942,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -52159,7 +52159,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -52230,7 +52230,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52309,7 +52309,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -52380,7 +52380,7 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -52524,7 +52524,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -52679,7 +52679,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -52750,7 +52750,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -52821,7 +52821,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -52892,7 +52892,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -53034,7 +53034,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -53272,7 +53272,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -53343,7 +53343,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -53489,7 +53489,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -53639,7 +53639,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -53777,7 +53777,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -53844,7 +53844,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -53911,7 +53911,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -53990,7 +53990,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -54069,7 +54069,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
@@ -54341,7 +54341,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -54416,7 +54416,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -54491,7 +54491,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -55284,7 +55284,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -55355,7 +55355,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -55490,7 +55490,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -55553,7 +55553,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -55770,7 +55770,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -55995,7 +55995,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -56062,7 +56062,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -56142,7 +56142,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -56209,7 +56209,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56560,7 +56560,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -56623,7 +56623,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -56694,7 +56694,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -56840,7 +56840,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -56915,7 +56915,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -57065,7 +57065,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -57441,7 +57441,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K788" t="inlineStr">
@@ -57670,7 +57670,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -57812,7 +57812,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K793" t="inlineStr">
@@ -58230,7 +58230,7 @@
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K799" t="inlineStr">
@@ -58376,7 +58376,7 @@
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -58672,7 +58672,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -58751,7 +58751,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -59173,7 +59173,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
@@ -59386,7 +59386,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -59457,7 +59457,7 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -59603,7 +59603,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K818" t="inlineStr">
@@ -60389,7 +60389,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -60468,7 +60468,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -60760,7 +60760,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -60910,7 +60910,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -61056,7 +61056,7 @@
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K838" t="inlineStr">
@@ -61190,7 +61190,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61253,7 +61253,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
@@ -61332,7 +61332,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K842" t="inlineStr">
@@ -61399,7 +61399,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -61754,7 +61754,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K848" t="inlineStr">
@@ -61825,7 +61825,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -62061,7 +62061,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -62128,7 +62128,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -62191,7 +62191,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -62262,7 +62262,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -62325,7 +62325,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -62400,7 +62400,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K857" t="inlineStr">
@@ -62471,7 +62471,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -62613,7 +62613,7 @@
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
@@ -62842,7 +62842,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -63327,7 +63327,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -63840,7 +63840,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
@@ -64132,7 +64132,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -64283,7 +64283,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
@@ -64350,7 +64350,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -64425,7 +64425,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
@@ -64847,7 +64847,7 @@
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -64910,7 +64910,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -65190,7 +65190,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
@@ -65253,7 +65253,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65470,7 +65470,7 @@
         </is>
       </c>
       <c r="I900" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="J900" t="inlineStr">
         <is>
@@ -65553,7 +65553,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -66038,7 +66038,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -66113,7 +66113,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
@@ -66184,7 +66184,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -66322,7 +66322,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -66401,7 +66401,7 @@
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -66472,7 +66472,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -66539,7 +66539,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -66606,7 +66606,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -66685,7 +66685,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
@@ -66906,7 +66906,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -67334,7 +67334,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -67484,7 +67484,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -67983,7 +67983,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K935" t="inlineStr">
@@ -68547,7 +68547,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K943" t="inlineStr">
@@ -68626,7 +68626,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -68701,7 +68701,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -68851,7 +68851,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -69068,7 +69068,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -69214,7 +69214,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
@@ -69277,7 +69277,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K953" t="inlineStr">
@@ -69348,7 +69348,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K954" t="inlineStr">
@@ -69616,7 +69616,7 @@
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
@@ -69687,7 +69687,7 @@
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -69834,7 +69834,7 @@
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -69984,7 +69984,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K963" t="inlineStr">
@@ -70055,7 +70055,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -70134,7 +70134,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -70209,7 +70209,7 @@
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K966" t="inlineStr">
@@ -70485,7 +70485,7 @@
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K970" t="inlineStr">
@@ -70623,7 +70623,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -70686,7 +70686,7 @@
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K973" t="inlineStr">
@@ -70756,7 +70756,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
@@ -70831,7 +70831,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K975" t="inlineStr">
@@ -70985,7 +70985,7 @@
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K977" t="inlineStr">
@@ -71056,7 +71056,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K978" t="inlineStr">
@@ -71194,7 +71194,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
@@ -71273,7 +71273,7 @@
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K981" t="inlineStr">
@@ -71494,7 +71494,7 @@
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K984" t="inlineStr">
@@ -71922,7 +71922,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -72002,7 +72002,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K991" t="inlineStr">
@@ -72077,7 +72077,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -72152,7 +72152,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -72219,7 +72219,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -72353,7 +72353,7 @@
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K996" t="inlineStr">
@@ -72649,7 +72649,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -72956,7 +72956,7 @@
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1004" t="inlineStr">
@@ -73031,7 +73031,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1005" t="inlineStr">
@@ -73181,7 +73181,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1007" t="inlineStr">
@@ -73248,7 +73248,7 @@
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -73319,7 +73319,7 @@
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -73390,7 +73390,7 @@
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -73469,7 +73469,7 @@
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -73773,7 +73773,7 @@
       </c>
       <c r="J1015" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1015" t="inlineStr">
@@ -73840,7 +73840,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -73978,7 +73978,7 @@
       </c>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1018" t="inlineStr">
@@ -74049,7 +74049,7 @@
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1019" t="inlineStr">
@@ -74128,7 +74128,7 @@
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1020" t="inlineStr">
@@ -74286,7 +74286,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -74361,7 +74361,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -74508,7 +74508,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1025" t="inlineStr">
@@ -74658,7 +74658,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -74733,7 +74733,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -74954,7 +74954,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1031" t="inlineStr">
@@ -75471,7 +75471,7 @@
       </c>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1038" t="inlineStr">
@@ -75546,7 +75546,7 @@
       </c>
       <c r="J1039" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1039" t="inlineStr">
@@ -75989,7 +75989,7 @@
       </c>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -76060,7 +76060,7 @@
       </c>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -76137,7 +76137,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -76586,7 +76586,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -76732,7 +76732,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -76811,7 +76811,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -76882,7 +76882,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -76957,7 +76957,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1058" t="inlineStr">
@@ -77371,7 +77371,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1064" t="inlineStr">
@@ -77450,7 +77450,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -77663,7 +77663,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -77951,7 +77951,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr">
@@ -78109,7 +78109,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1074" t="inlineStr">
@@ -78263,7 +78263,7 @@
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1076" t="inlineStr">
@@ -78330,7 +78330,7 @@
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1077" t="inlineStr">
@@ -78397,7 +78397,7 @@
       </c>
       <c r="J1078" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1078" t="inlineStr">
@@ -78752,7 +78752,7 @@
       </c>
       <c r="J1083" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1083" t="inlineStr">
@@ -78823,7 +78823,7 @@
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1084" t="inlineStr">
@@ -79044,7 +79044,7 @@
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1087" t="inlineStr">
@@ -79202,7 +79202,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1089" t="inlineStr">
@@ -79493,7 +79493,7 @@
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1093" t="inlineStr">
@@ -79568,7 +79568,7 @@
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1094" t="inlineStr">
@@ -79635,7 +79635,7 @@
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1095" t="inlineStr">
@@ -79945,7 +79945,7 @@
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1099" t="inlineStr">
@@ -80087,7 +80087,7 @@
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1101" t="inlineStr">
@@ -80162,7 +80162,7 @@
       </c>
       <c r="J1102" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1102" t="inlineStr">
@@ -80300,7 +80300,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1104" t="inlineStr">
@@ -80442,7 +80442,7 @@
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1106" t="inlineStr">
@@ -80596,7 +80596,7 @@
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1108" t="inlineStr">
@@ -80826,7 +80826,7 @@
       </c>
       <c r="J1111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1111" t="inlineStr">
@@ -81340,7 +81340,7 @@
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1118" t="inlineStr">
@@ -81494,7 +81494,7 @@
       </c>
       <c r="J1120" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1120" t="inlineStr">
@@ -81573,7 +81573,7 @@
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1121" t="inlineStr">
@@ -81719,7 +81719,7 @@
       </c>
       <c r="J1123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1123" t="inlineStr">
@@ -81936,7 +81936,7 @@
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1126" t="inlineStr">
@@ -82141,7 +82141,7 @@
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1129" t="inlineStr">
@@ -82280,7 +82280,7 @@
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1131" t="inlineStr">
@@ -82726,7 +82726,7 @@
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1137" t="inlineStr">
@@ -83322,7 +83322,7 @@
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1145" t="inlineStr">
@@ -83473,7 +83473,7 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1147" t="inlineStr">
@@ -83631,7 +83631,7 @@
       </c>
       <c r="J1149" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1149" t="inlineStr">
@@ -83702,7 +83702,7 @@
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1150" t="inlineStr">
@@ -83777,7 +83777,7 @@
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1151" t="inlineStr">
@@ -83852,7 +83852,7 @@
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1152" t="inlineStr">
@@ -83982,11 +83982,11 @@
         </is>
       </c>
       <c r="I1154" t="n">
-        <v>3728</v>
+        <v>3730</v>
       </c>
       <c r="J1154" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1154" t="inlineStr">
@@ -84132,7 +84132,7 @@
       </c>
       <c r="J1156" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1156" t="inlineStr">
@@ -84333,7 +84333,7 @@
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1159" t="inlineStr">
@@ -84467,7 +84467,7 @@
       </c>
       <c r="J1161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1161" t="inlineStr">
@@ -84760,7 +84760,7 @@
       </c>
       <c r="J1165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1165" t="inlineStr">
@@ -84989,7 +84989,7 @@
       </c>
       <c r="J1168" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1168" t="inlineStr">
@@ -85139,7 +85139,7 @@
       </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1170" t="inlineStr">
@@ -85664,7 +85664,7 @@
       </c>
       <c r="J1177" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1177" t="inlineStr">
@@ -85944,7 +85944,7 @@
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1181" t="inlineStr">
@@ -86023,7 +86023,7 @@
       </c>
       <c r="J1182" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1182" t="inlineStr">
